--- a/julia/Resolve_MILP/result_plant_Zt.xlsx
+++ b/julia/Resolve_MILP/result_plant_Zt.xlsx
@@ -437,10 +437,10 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>26716.72</v>
+        <v>19450.62</v>
       </c>
       <c r="C2">
-        <v>26716.72</v>
+        <v>19450.616</v>
       </c>
       <c r="D2">
         <v>0.0</v>
@@ -449,7 +449,7 @@
         <v>1.0</v>
       </c>
       <c r="F2">
-        <v>0.0062</v>
+        <v>0.0097</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -457,19 +457,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>53176.37</v>
+        <v>37730.16</v>
       </c>
       <c r="C3">
-        <v>53175.553</v>
+        <v>37730.16</v>
       </c>
       <c r="D3">
-        <v>0.0016</v>
+        <v>0.0</v>
       </c>
       <c r="E3">
-        <v>49.5</v>
+        <v>309.7</v>
       </c>
       <c r="F3">
-        <v>0.0434</v>
+        <v>0.0879</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -477,19 +477,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>97973.98</v>
+        <v>69396.58</v>
       </c>
       <c r="C4">
-        <v>97971.863</v>
+        <v>69395.669</v>
       </c>
       <c r="D4">
-        <v>0.0022</v>
+        <v>0.0013</v>
       </c>
       <c r="E4">
-        <v>1.0</v>
+        <v>83.9</v>
       </c>
       <c r="F4">
-        <v>0.0082</v>
+        <v>0.0321</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -497,19 +497,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>190815.78</v>
+        <v>131292.92</v>
       </c>
       <c r="C5">
-        <v>190803.428</v>
+        <v>131288.7</v>
       </c>
       <c r="D5">
-        <v>0.0065</v>
+        <v>0.0032</v>
       </c>
       <c r="E5">
-        <v>6.2</v>
+        <v>359.5</v>
       </c>
       <c r="F5">
-        <v>0.0774</v>
+        <v>0.212</v>
       </c>
     </row>
   </sheetData>
